--- a/data/pca/factorExposure/factorExposure_2012-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4.067161007973843e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001819798298447709</v>
+      </c>
+      <c r="C2">
+        <v>-0.03156158411731613</v>
+      </c>
+      <c r="D2">
+        <v>0.00499195571423496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005176480648293812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006413053772049677</v>
+      </c>
+      <c r="C4">
+        <v>-0.08400498411614281</v>
+      </c>
+      <c r="D4">
+        <v>0.07752267159985075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005266319574389241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01445210218068447</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139170395418664</v>
+      </c>
+      <c r="D6">
+        <v>0.03300663806525288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001558607524096174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005174812586022044</v>
+      </c>
+      <c r="C7">
+        <v>-0.05824461539673434</v>
+      </c>
+      <c r="D7">
+        <v>0.03028816745801497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0009065365570401238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005901983710180614</v>
+      </c>
+      <c r="C8">
+        <v>-0.03787550529200123</v>
+      </c>
+      <c r="D8">
+        <v>0.04044475762526881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00332534316105215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004574356159321291</v>
+      </c>
+      <c r="C9">
+        <v>-0.07026399694640845</v>
+      </c>
+      <c r="D9">
+        <v>0.07223172833536863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.00331037749469562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005410456016544276</v>
+      </c>
+      <c r="C10">
+        <v>-0.05815887858486465</v>
+      </c>
+      <c r="D10">
+        <v>-0.1979185030095879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002319885130691945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005890584360183354</v>
+      </c>
+      <c r="C11">
+        <v>-0.0797662635827083</v>
+      </c>
+      <c r="D11">
+        <v>0.05936606648484508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006951999185159936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004199646321791188</v>
+      </c>
+      <c r="C12">
+        <v>-0.06409507625314133</v>
+      </c>
+      <c r="D12">
+        <v>0.04560597602030188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002099495321577445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009154788987147226</v>
+      </c>
+      <c r="C13">
+        <v>-0.06895446407684423</v>
+      </c>
+      <c r="D13">
+        <v>0.05739993174393734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007853657818181869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001655220584477665</v>
+      </c>
+      <c r="C14">
+        <v>-0.04540981333878225</v>
+      </c>
+      <c r="D14">
+        <v>0.00351193625702571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006699316174305493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006123255934985281</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206951725301438</v>
+      </c>
+      <c r="D15">
+        <v>0.0290152797518463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005358733021315852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005178381559120739</v>
+      </c>
+      <c r="C16">
+        <v>-0.06503702175050934</v>
+      </c>
+      <c r="D16">
+        <v>0.04872989219736392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005350121800425176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009115108053858</v>
+      </c>
+      <c r="C20">
+        <v>-0.06555225962120709</v>
+      </c>
+      <c r="D20">
+        <v>0.0421364030707369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00579976860130247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100408376501279</v>
+      </c>
+      <c r="C21">
+        <v>-0.02088826876241053</v>
+      </c>
+      <c r="D21">
+        <v>0.03763769558768588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01577764492388215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006544528730763841</v>
+      </c>
+      <c r="C22">
+        <v>-0.09365651947766696</v>
+      </c>
+      <c r="D22">
+        <v>0.1091737495033665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01607541625559155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006360151467379838</v>
+      </c>
+      <c r="C23">
+        <v>-0.09446880010111441</v>
+      </c>
+      <c r="D23">
+        <v>0.1091902970892359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001179061615465107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005647729783843714</v>
+      </c>
+      <c r="C24">
+        <v>-0.07643499094779146</v>
+      </c>
+      <c r="D24">
+        <v>0.06303440875129968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003863880379056992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003171183679688958</v>
+      </c>
+      <c r="C25">
+        <v>-0.07854564098267217</v>
+      </c>
+      <c r="D25">
+        <v>0.06534146729399623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004403487023097633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003741113828389419</v>
+      </c>
+      <c r="C26">
+        <v>-0.04119900043131466</v>
+      </c>
+      <c r="D26">
+        <v>0.02259628722303034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.003654793966636744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007860437308040591</v>
+      </c>
+      <c r="C28">
+        <v>-0.1067466872482259</v>
+      </c>
+      <c r="D28">
+        <v>-0.3185761656932722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001212781598477983</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003480828029627629</v>
+      </c>
+      <c r="C29">
+        <v>-0.05113599070582132</v>
+      </c>
+      <c r="D29">
+        <v>0.00635801458555909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002531380492679241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009815106967785571</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417621478958656</v>
+      </c>
+      <c r="D30">
+        <v>0.1013192386468258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001141420834825729</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006333057198373817</v>
+      </c>
+      <c r="C31">
+        <v>-0.04456868690817212</v>
+      </c>
+      <c r="D31">
+        <v>0.02896368706569841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001001349350763043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004218183544258844</v>
+      </c>
+      <c r="C32">
+        <v>-0.03993723095855194</v>
+      </c>
+      <c r="D32">
+        <v>0.01988656190611834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002274281978660331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008664813024687293</v>
+      </c>
+      <c r="C33">
+        <v>-0.08658211142477702</v>
+      </c>
+      <c r="D33">
+        <v>0.0639730052462963</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00425000319306044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004095484620276675</v>
+      </c>
+      <c r="C34">
+        <v>-0.05805898217187479</v>
+      </c>
+      <c r="D34">
+        <v>0.05303014128296145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001144187106238204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005066423353033342</v>
+      </c>
+      <c r="C35">
+        <v>-0.04024006724298657</v>
+      </c>
+      <c r="D35">
+        <v>0.0173335228714862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003647069385787981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001067958604455136</v>
+      </c>
+      <c r="C36">
+        <v>-0.02459126481225806</v>
+      </c>
+      <c r="D36">
+        <v>0.02165912282967899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002412926567514536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00951384345043535</v>
+      </c>
+      <c r="C38">
+        <v>-0.03417891097838607</v>
+      </c>
+      <c r="D38">
+        <v>0.01567162145573946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01099924956668854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003241599744386764</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155836942606575</v>
+      </c>
+      <c r="D39">
+        <v>0.07323838473786741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009233973092755761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002860157192006935</v>
+      </c>
+      <c r="C40">
+        <v>-0.09012335371852437</v>
+      </c>
+      <c r="D40">
+        <v>0.01261402296744102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-8.538616599542345e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007368571960412446</v>
+      </c>
+      <c r="C41">
+        <v>-0.03819307440335077</v>
+      </c>
+      <c r="D41">
+        <v>0.03646788314972233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002922447293248975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004192769590769238</v>
+      </c>
+      <c r="C43">
+        <v>-0.05359427344178768</v>
+      </c>
+      <c r="D43">
+        <v>0.02452200569933295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004180419431241161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003559145867959639</v>
+      </c>
+      <c r="C44">
+        <v>-0.109307332312018</v>
+      </c>
+      <c r="D44">
+        <v>0.06521109221459252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001031460972673267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002323516220410801</v>
+      </c>
+      <c r="C46">
+        <v>-0.0332414667485886</v>
+      </c>
+      <c r="D46">
+        <v>0.03467024312427468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001226809268582641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002818856985008542</v>
+      </c>
+      <c r="C47">
+        <v>-0.03745398438315384</v>
+      </c>
+      <c r="D47">
+        <v>0.02199829422855167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003871103465275214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006762719318283371</v>
+      </c>
+      <c r="C48">
+        <v>-0.031083681960259</v>
+      </c>
+      <c r="D48">
+        <v>0.03253310574948128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01088354647341742</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01587415767669908</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850965103653869</v>
+      </c>
+      <c r="D49">
+        <v>0.01543599046673364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001536830922954376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003736871832270421</v>
+      </c>
+      <c r="C50">
+        <v>-0.04352263543061193</v>
+      </c>
+      <c r="D50">
+        <v>0.03506341850755586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0009104708890071249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00449094391526526</v>
+      </c>
+      <c r="C51">
+        <v>-0.02595313394614468</v>
+      </c>
+      <c r="D51">
+        <v>0.01889696733306343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001786640760074319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02133941216662703</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697372547304397</v>
+      </c>
+      <c r="D53">
+        <v>0.02555073799960681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.00128267638300355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008886013373753531</v>
+      </c>
+      <c r="C54">
+        <v>-0.05403143986523249</v>
+      </c>
+      <c r="D54">
+        <v>0.04449347376049793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003012833875619542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009892194293171503</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094527585316511</v>
+      </c>
+      <c r="D55">
+        <v>0.03863171024029943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003441889632227856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02047972628030015</v>
+      </c>
+      <c r="C56">
+        <v>-0.1740819654466597</v>
+      </c>
+      <c r="D56">
+        <v>0.02054385148671486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006419026911289822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01966203332251418</v>
+      </c>
+      <c r="C58">
+        <v>-0.1103365524244981</v>
+      </c>
+      <c r="D58">
+        <v>0.05835272864326767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005167103293678493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01008491882511699</v>
+      </c>
+      <c r="C59">
+        <v>-0.164655369604873</v>
+      </c>
+      <c r="D59">
+        <v>-0.3281897380071322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002990900354494735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02462552174452952</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226079439373876</v>
+      </c>
+      <c r="D60">
+        <v>0.03527320743873629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01344146902429809</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001549270738580056</v>
+      </c>
+      <c r="C61">
+        <v>-0.09481577210504194</v>
+      </c>
+      <c r="D61">
+        <v>0.05459709431729284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624929134444729</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453170166776443</v>
+      </c>
+      <c r="C62">
+        <v>-0.09434660639689017</v>
+      </c>
+      <c r="D62">
+        <v>0.03919635992739998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.000423076780853517</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006429319646922466</v>
+      </c>
+      <c r="C63">
+        <v>-0.05497104527343528</v>
+      </c>
+      <c r="D63">
+        <v>0.02684801850154193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0003769219318099889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01551377549799094</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048213816776514</v>
+      </c>
+      <c r="D64">
+        <v>0.05674212385508237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003518552260933217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01832005237497804</v>
+      </c>
+      <c r="C65">
+        <v>-0.1242554984741593</v>
+      </c>
+      <c r="D65">
+        <v>0.02526210684683159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006764136149593086</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01339971384018775</v>
+      </c>
+      <c r="C66">
+        <v>-0.159660279533315</v>
+      </c>
+      <c r="D66">
+        <v>0.1113214081030718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003918984433176688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0157368102402903</v>
+      </c>
+      <c r="C67">
+        <v>-0.06500448598481698</v>
+      </c>
+      <c r="D67">
+        <v>0.02649705422372811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.004919048664766973</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007885042833939372</v>
+      </c>
+      <c r="C68">
+        <v>-0.08698424248051327</v>
+      </c>
+      <c r="D68">
+        <v>-0.2608411668800082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001797474660562936</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006322117133652875</v>
+      </c>
+      <c r="C69">
+        <v>-0.05029565572069289</v>
+      </c>
+      <c r="D69">
+        <v>0.03821403809508513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002749080066901849</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00182249055963349</v>
+      </c>
+      <c r="C70">
+        <v>-0.002694443256181321</v>
+      </c>
+      <c r="D70">
+        <v>0.0004737719308065913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0009685754613611189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005903946476102932</v>
+      </c>
+      <c r="C71">
+        <v>-0.09453727477919045</v>
+      </c>
+      <c r="D71">
+        <v>-0.3062154663786933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003225555891258365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01658903470374415</v>
+      </c>
+      <c r="C72">
+        <v>-0.1536454300658626</v>
+      </c>
+      <c r="D72">
+        <v>0.01822657640875521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01027185545165878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03148355115325556</v>
+      </c>
+      <c r="C73">
+        <v>-0.2801388766708216</v>
+      </c>
+      <c r="D73">
+        <v>0.0570414493934587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004526167088200091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00221123415651519</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045951501358702</v>
+      </c>
+      <c r="D74">
+        <v>0.03502732066161433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002006733869761314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01131803795264925</v>
+      </c>
+      <c r="C75">
+        <v>-0.1245005340590112</v>
+      </c>
+      <c r="D75">
+        <v>0.02674560339352431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009381784448238027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02216539749742768</v>
+      </c>
+      <c r="C76">
+        <v>-0.1486029823454373</v>
+      </c>
+      <c r="D76">
+        <v>0.05844091337684994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001832746885644894</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02368402740893276</v>
+      </c>
+      <c r="C77">
+        <v>-0.1210218639404774</v>
+      </c>
+      <c r="D77">
+        <v>0.08169250825287318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001272736797909168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01502398185056872</v>
+      </c>
+      <c r="C78">
+        <v>-0.09588998116560692</v>
+      </c>
+      <c r="D78">
+        <v>0.07276562096741858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02399872474901446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0380389573521789</v>
+      </c>
+      <c r="C79">
+        <v>-0.1565163642361488</v>
+      </c>
+      <c r="D79">
+        <v>0.03237099564446735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006881749986418692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01045785104008741</v>
+      </c>
+      <c r="C80">
+        <v>-0.03977865290097086</v>
+      </c>
+      <c r="D80">
+        <v>0.02936286031030249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001116014671962233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01562463636644465</v>
+      </c>
+      <c r="C81">
+        <v>-0.1267768392204593</v>
+      </c>
+      <c r="D81">
+        <v>0.03989057942980231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006116911647748901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02023020727030594</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417274049264502</v>
+      </c>
+      <c r="D82">
+        <v>0.03525908366777151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009018521344777541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008497658773792</v>
+      </c>
+      <c r="C83">
+        <v>-0.05514444492298286</v>
+      </c>
+      <c r="D83">
+        <v>0.05378010293088998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01365501640699493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0117445553344581</v>
+      </c>
+      <c r="C84">
+        <v>-0.03720727007433092</v>
+      </c>
+      <c r="D84">
+        <v>-0.005300770912511367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01425825866664983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02859976459552906</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241834116749749</v>
+      </c>
+      <c r="D85">
+        <v>0.04599702277665148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001003064536512154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005908946658571734</v>
+      </c>
+      <c r="C86">
+        <v>-0.04950899358503031</v>
+      </c>
+      <c r="D86">
+        <v>0.02807436621838185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003242526133621686</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01038550506697074</v>
+      </c>
+      <c r="C87">
+        <v>-0.1281627544915598</v>
+      </c>
+      <c r="D87">
+        <v>0.07404060577658847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.0112877034889245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002795641001286626</v>
+      </c>
+      <c r="C88">
+        <v>-0.0649373861824528</v>
+      </c>
+      <c r="D88">
+        <v>0.01826495604247389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01178280881879706</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001015417736499545</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467849353914479</v>
+      </c>
+      <c r="D89">
+        <v>-0.3328399487968525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0007119826994713736</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00720080868599841</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208681247028515</v>
+      </c>
+      <c r="D90">
+        <v>-0.3192260739257204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0009294313528907998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01061685248623194</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003387182575852</v>
+      </c>
+      <c r="D91">
+        <v>0.02058496762469333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006072980618814227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001257365978250294</v>
+      </c>
+      <c r="C92">
+        <v>-0.13547519109338</v>
+      </c>
+      <c r="D92">
+        <v>-0.3279031653180602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001076448679361611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005114348071145777</v>
+      </c>
+      <c r="C93">
+        <v>-0.1052141031509626</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012902585383245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004347091771708575</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02293644118861155</v>
+      </c>
+      <c r="C94">
+        <v>-0.1465162403893604</v>
+      </c>
+      <c r="D94">
+        <v>0.05492207261770705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004504533680019686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01662327692781316</v>
+      </c>
+      <c r="C95">
+        <v>-0.1247515758697805</v>
+      </c>
+      <c r="D95">
+        <v>0.05991717838908459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002039330837209035</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03690625563710347</v>
+      </c>
+      <c r="C97">
+        <v>-0.2145311164920051</v>
+      </c>
+      <c r="D97">
+        <v>-0.003219051072087686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001735200360924293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03731596818464148</v>
+      </c>
+      <c r="C98">
+        <v>-0.249521356757642</v>
+      </c>
+      <c r="D98">
+        <v>0.04840467023752925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851028661273739</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818589914362692</v>
+      </c>
+      <c r="C99">
+        <v>0.1192185631388444</v>
+      </c>
+      <c r="D99">
+        <v>-0.02691176231580775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001112633558833748</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00351854842257648</v>
+      </c>
+      <c r="C101">
+        <v>-0.05131218655924436</v>
+      </c>
+      <c r="D101">
+        <v>0.006471555328670824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
